--- a/ReservoirDesignPlatform/生产/WellLocation.xlsx
+++ b/ReservoirDesignPlatform/生产/WellLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\ReservoirDesignPlatform\生产\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF454C16-3F87-4295-810C-C5E5E477760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABF381A-18AD-47D2-B5EF-EF95EB42EA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BO18" sqref="BO18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/ReservoirDesignPlatform/生产/WellLocation.xlsx
+++ b/ReservoirDesignPlatform/生产/WellLocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\ReservoirDesignPlatform\生产\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABF381A-18AD-47D2-B5EF-EF95EB42EA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F4613-5B63-4014-8592-19D88C8739BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV11" sqref="BV11:BV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,10 +925,7 @@
       <c r="BQ2" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BR2" s="19">
-        <f>33-BQ2</f>
-        <v>28.9</v>
-      </c>
+      <c r="BR2" s="19"/>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -1007,10 +1004,7 @@
       <c r="BQ3" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="BR3" s="19">
-        <f t="shared" ref="BR3:BR10" si="0">33-BQ3</f>
-        <v>15.100000000000001</v>
-      </c>
+      <c r="BR3" s="19"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -1091,10 +1085,7 @@
       <c r="BQ4" s="6">
         <v>18.3</v>
       </c>
-      <c r="BR4" s="19">
-        <f t="shared" si="0"/>
-        <v>14.7</v>
-      </c>
+      <c r="BR4" s="19"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -1177,10 +1168,7 @@
       <c r="BQ5" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="BR5" s="19">
-        <f t="shared" si="0"/>
-        <v>15.100000000000001</v>
-      </c>
+      <c r="BR5" s="19"/>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -1259,10 +1247,7 @@
       <c r="BQ6" s="6">
         <v>29.1</v>
       </c>
-      <c r="BR6" s="19">
-        <f t="shared" si="0"/>
-        <v>3.8999999999999986</v>
-      </c>
+      <c r="BR6" s="19"/>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -1341,10 +1326,7 @@
       <c r="BQ7" s="6">
         <v>30.5</v>
       </c>
-      <c r="BR7" s="19">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
+      <c r="BR7" s="19"/>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1423,10 +1405,7 @@
       <c r="BQ8" s="6">
         <v>30.3</v>
       </c>
-      <c r="BR8" s="19">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999993</v>
-      </c>
+      <c r="BR8" s="19"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -1505,10 +1484,7 @@
       <c r="BQ9" s="6">
         <v>3.6</v>
       </c>
-      <c r="BR9" s="19">
-        <f t="shared" si="0"/>
-        <v>29.4</v>
-      </c>
+      <c r="BR9" s="19"/>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -1587,10 +1563,7 @@
       <c r="BQ10" s="6">
         <v>3.12</v>
       </c>
-      <c r="BR10" s="19">
-        <f t="shared" si="0"/>
-        <v>29.88</v>
-      </c>
+      <c r="BR10" s="19"/>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
